--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Joint02/Pully/Pully.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Joint02/Pully/Pully.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\Joint01\Pully\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\Base\Pully\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2D79FC-33D8-4148-A17F-A84504E466C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AA1164-CCC7-4BA7-A956-77E003B40529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Type</t>
   </si>
@@ -58,27 +58,6 @@
   </si>
   <si>
     <t>Servo Pulley</t>
-  </si>
-  <si>
-    <t>https://ampere-electronics.com/product/20teeth-gt2-idler-pulley-6mm-width-3mm-bore/</t>
-  </si>
-  <si>
-    <t>20Teeth GT2 Idler Pulley, 6mm Width, 3mm Bore</t>
-  </si>
-  <si>
-    <t>Idler Pulley</t>
-  </si>
-  <si>
-    <t>20Teeth GT2 Idler Pulley, 6mm Width, 5mm Bore</t>
-  </si>
-  <si>
-    <t>https://ampere-electronics.com/product/20teeth-gt2-idler-pulley-5mm-bore/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mcmaster.com/products/idler-pulleys/timing-belt-idler-pulleys-2~/for-maximum-belt-width~6-mm/shaft-diameter~5-mm/ </t>
-  </si>
-  <si>
-    <t>McMaster</t>
   </si>
 </sst>
 </file>
@@ -427,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +419,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -453,11 +432,8 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -471,7 +447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -483,46 +459,12 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D15FAF75-20EE-4344-B813-216CD899477B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{9EF1AE97-8E00-4EAF-B76A-F3BA4415BBE4}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{63651166-D519-4307-98F8-9106434765BC}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{26AD5D9E-5C48-4477-BF07-C8208BF60937}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{0A1E6401-678A-4A40-9EE6-1D59243293A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
